--- a/src/jennie테이블명세서.xlsx
+++ b/src/jennie테이블명세서.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="75">
   <si>
     <t>Table Commend</t>
   </si>
@@ -248,6 +248,82 @@
   </si>
   <si>
     <t>O</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>14 BYTE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 BYTE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ysdate</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>references dept(deptno)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1000,6 +1076,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1052,45 +1167,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1403,8 +1479,8 @@
   </sheetPr>
   <dimension ref="B1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1425,68 +1501,68 @@
   <sheetData>
     <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="57"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="62"/>
     </row>
     <row r="4" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="57"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="70"/>
     </row>
     <row r="5" spans="2:15" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="60"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="42"/>
     </row>
     <row r="6" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="31" t="s">
@@ -1570,8 +1646,12 @@
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="17"/>
+      <c r="I8" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="7"/>
@@ -1595,7 +1675,9 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
+      <c r="J9" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="7"/>
@@ -1617,7 +1699,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="H10" s="17"/>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
       <c r="K10" s="2"/>
@@ -1642,9 +1724,13 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
+      <c r="J11" s="17" t="s">
+        <v>71</v>
+      </c>
       <c r="K11" s="8"/>
-      <c r="L11" s="2"/>
+      <c r="L11" s="17" t="s">
+        <v>73</v>
+      </c>
       <c r="M11" s="7"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
@@ -1666,7 +1752,9 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
+      <c r="J12" s="17" t="s">
+        <v>72</v>
+      </c>
       <c r="K12" s="8"/>
       <c r="L12" s="2"/>
       <c r="M12" s="29"/>
@@ -1712,12 +1800,18 @@
         <v>2</v>
       </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="H14" s="17" t="s">
+        <v>70</v>
+      </c>
       <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
+      <c r="J14" s="17" t="s">
+        <v>72</v>
+      </c>
       <c r="K14" s="17"/>
       <c r="L14" s="18"/>
-      <c r="M14" s="29"/>
+      <c r="M14" s="29" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="35">
@@ -1913,36 +2007,1110 @@
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="62"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="65"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="47"/>
     </row>
     <row r="28" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="67"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="70"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:M2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:M28"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC0504D"/>
+  </sheetPr>
+  <dimension ref="B1:P28"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="10" width="7.625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="30.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.875" style="1"/>
+    <col min="15" max="15" width="27" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B2" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="57"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="62"/>
+    </row>
+    <row r="4" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="64"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="70"/>
+    </row>
+    <row r="5" spans="2:15" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="42"/>
+    </row>
+    <row r="6" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="34">
+        <v>1</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="19"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="35">
+        <v>2</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="35">
+        <v>3</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="35">
+        <v>4</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="7"/>
+      <c r="O10" s="13"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="35">
+        <v>5</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="35">
+        <v>6</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="29"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="35">
+        <v>7</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="29"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="35">
+        <v>8</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="29"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="35">
+        <v>9</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="28"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="35">
+        <v>10</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="39"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="35">
+        <v>11</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="39"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="35">
+        <v>12</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="29"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="35">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="35">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21" s="35">
+        <v>15</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="7"/>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22" s="35">
+        <v>16</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23" s="35">
+        <v>17</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="30"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B24" s="35">
+        <v>18</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="30"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B25" s="35">
+        <v>19</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="36">
+        <v>20</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="12"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B27" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="44"/>
+      <c r="D27" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="47"/>
+    </row>
+    <row r="28" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="49"/>
+      <c r="D28" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:M2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:M28"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2">
+    <tabColor rgb="FFC0504D"/>
+  </sheetPr>
+  <dimension ref="B2:P34"/>
+  <sheetViews>
+    <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="10" width="7.625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="30.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.875" style="1"/>
+    <col min="15" max="15" width="27" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B2" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="57"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="62"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="64"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="70"/>
+    </row>
+    <row r="5" spans="2:15" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="42"/>
+    </row>
+    <row r="6" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="34">
+        <v>1</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="19"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="35">
+        <v>2</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="37"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="35">
+        <v>3</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="37"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="35">
+        <v>4</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="7"/>
+      <c r="O10" s="13"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="35">
+        <v>5</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="35">
+        <v>6</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="29"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="35">
+        <v>7</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="27"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="35">
+        <v>8</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="29"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="35">
+        <v>9</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="28"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="35">
+        <v>10</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="39"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="35">
+        <v>11</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="39"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="35">
+        <v>12</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="29"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="35">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="35">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21" s="35">
+        <v>15</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="7"/>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22" s="35">
+        <v>16</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23" s="35">
+        <v>17</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="30"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B24" s="35">
+        <v>18</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="30"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B25" s="35">
+        <v>19</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="36">
+        <v>20</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="12"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B27" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="44"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="47"/>
+    </row>
+    <row r="28" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="49"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="52"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E34"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1964,1048 +3132,4 @@
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFC0504D"/>
-  </sheetPr>
-  <dimension ref="B1:P28"/>
-  <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="1" customWidth="1"/>
-    <col min="7" max="10" width="7.625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="30.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.875" style="1"/>
-    <col min="15" max="15" width="27" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
-    </row>
-    <row r="4" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="57"/>
-    </row>
-    <row r="5" spans="2:15" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="60"/>
-    </row>
-    <row r="6" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="34">
-        <v>1</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="19"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="35">
-        <v>2</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="35">
-        <v>3</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="7"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="35">
-        <v>4</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="7"/>
-      <c r="O10" s="13"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="35">
-        <v>5</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="7"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="35">
-        <v>6</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="29"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="35">
-        <v>7</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="29"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="35">
-        <v>8</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="29"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="35">
-        <v>9</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="28"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="35">
-        <v>10</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="39"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="35">
-        <v>11</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="39"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="35">
-        <v>12</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="29"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="35">
-        <v>13</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="35">
-        <v>14</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="35">
-        <v>15</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="7"/>
-      <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="35">
-        <v>16</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="35">
-        <v>17</v>
-      </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="30"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="35">
-        <v>18</v>
-      </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="30"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="35">
-        <v>19</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="36">
-        <v>20</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="12"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="62"/>
-      <c r="D27" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="65"/>
-    </row>
-    <row r="28" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="67"/>
-      <c r="D28" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="70"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:M2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-  </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2">
-    <tabColor rgb="FFC0504D"/>
-  </sheetPr>
-  <dimension ref="B2:P34"/>
-  <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="1" customWidth="1"/>
-    <col min="7" max="10" width="7.625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="30.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.875" style="1"/>
-    <col min="15" max="15" width="27" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="57"/>
-    </row>
-    <row r="5" spans="2:15" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="60"/>
-    </row>
-    <row r="6" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="34">
-        <v>1</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="19"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="35">
-        <v>2</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="35">
-        <v>3</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="7"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="35">
-        <v>4</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="7"/>
-      <c r="O10" s="13"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="35">
-        <v>5</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="7"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="35">
-        <v>6</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="29"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="35">
-        <v>7</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="27"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="35">
-        <v>8</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="29"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="35">
-        <v>9</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="28"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="35">
-        <v>10</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="39"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="35">
-        <v>11</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="39"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="35">
-        <v>12</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="29"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="35">
-        <v>13</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="35">
-        <v>14</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="35">
-        <v>15</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="7"/>
-      <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="35">
-        <v>16</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="35">
-        <v>17</v>
-      </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="30"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="35">
-        <v>18</v>
-      </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="30"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="35">
-        <v>19</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="36">
-        <v>20</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="12"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="62"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="65"/>
-    </row>
-    <row r="28" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="67"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="70"/>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E34"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:M2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:M28"/>
-  </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>